--- a/Experiment_Results_updated.xlsx
+++ b/Experiment_Results_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutao/PycharmProjects/Network_tomography/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5375457-98DC-3744-8973-F84BC4BFF069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ACB422B-C94D-F74A-B3AB-A790AD607276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59380" yWindow="2280" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{364D682F-7B04-A048-A598-7CE26482F535}"/>
+    <workbookView xWindow="1060" yWindow="780" windowWidth="29940" windowHeight="18100" activeTab="1" xr2:uid="{364D682F-7B04-A048-A598-7CE26482F535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,102 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D28BDBFF-1528-E748-B16C-F3DBE52B1B2B}</author>
+    <author>tc={1EFAEBE9-F041-D94A-B38C-C6F09206E75C}</author>
+    <author>tc={FF409B16-7D44-304B-B1C1-19A3808E603A}</author>
+    <author>tc={07F9D206-B666-1043-8B62-DD18D40F27D7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A107" authorId="0" shapeId="0" xr:uid="{D28BDBFF-1528-E748-B16C-F3DBE52B1B2B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    xta231/Desktop/experiments/Scalability/baseline/Network_Monitoring_with_tomography_and_RL/temp/BTN</t>
+      </text>
+    </comment>
+    <comment ref="H107" authorId="1" shapeId="0" xr:uid="{1EFAEBE9-F041-D94A-B38C-C6F09206E75C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    xutao/PycharmProjects/NT_experiments/scalability/subito/Network_Monitoring_with_tomography_and_RL/temp
+</t>
+      </text>
+    </comment>
+    <comment ref="G115" authorId="2" shapeId="0" xr:uid="{FF409B16-7D44-304B-B1C1-19A3808E603A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+     python3 main.py BTN 20 2 1 20 &gt; BTN_20_subito.log &amp;  
+/Users/xutao/PycharmProjects/Network_tomography/temp</t>
+      </text>
+    </comment>
+    <comment ref="B128" authorId="3" shapeId="0" xr:uid="{07F9D206-B666-1043-8B62-DD18D40F27D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    python3 main.py BTN 20 2 1 20 &gt; BTN_subito_perfect_20run.log
+xta231/Desktop/experiments/Scalability/subito_perfect/BTN/Network_Monitoring_with_tomography_and_RL/temp</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DD5B7503-0861-AF4E-B3FB-F2F3A7D56129}</author>
+    <author>tc={15F631CE-E508-5445-B51A-ECE8E8B3B409}</author>
+    <author>tc={CA79A69E-D931-6148-8D73-963A4AF5C695}</author>
+    <author>tc={D3790BEA-9440-F942-9D26-BBCB8ECB9AD7}</author>
+  </authors>
+  <commentList>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{DD5B7503-0861-AF4E-B3FB-F2F3A7D56129}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    /Users/xutao/PycharmProjects/NT_experiments/scalability/subito_perfect/Network_Monitoring_with_tomography_and_RL/temp</t>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="1" shapeId="0" xr:uid="{15F631CE-E508-5445-B51A-ECE8E8B3B409}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    /Users/xutao/PycharmProjects/Network_tomography/temp/Subito*/40nodes</t>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="2" shapeId="0" xr:uid="{CA79A69E-D931-6148-8D73-963A4AF5C695}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    xta231/Desktop/experiments/Scalability/subito_perfect/60nodes/Network_Monitoring_with_tomography_and_RL/temp/1st_20times</t>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="3" shapeId="0" xr:uid="{D3790BEA-9440-F942-9D26-BBCB8ECB9AD7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    xutao/PycharmProjects/NT_experiments/scalability/subito_perfect/Network_Monitoring_with_tomography_and_RL/temp
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>%of optimal path selected</t>
   </si>
@@ -177,47 +271,92 @@
     <t>UBC1</t>
   </si>
   <si>
-    <t>50 nodes Barabasi Final</t>
-  </si>
-  <si>
-    <t>30% monitors deployed</t>
-  </si>
-  <si>
     <t xml:space="preserve">subito* </t>
   </si>
   <si>
-    <t>(optimal rate)</t>
-  </si>
-  <si>
     <t>abs</t>
   </si>
   <si>
     <t>subito</t>
   </si>
   <si>
-    <t>xta231/Desktop/experiments/Scalability/subito/20nodes/Network_Monitoring_with_tomography_and_RL/temp/first20times</t>
-  </si>
-  <si>
-    <t>xta231/Desktop/experiments/Scalability/subito/20nodes/Network_Monitoring_with_tomography_and_RL/temp/2rd20times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40times </t>
-  </si>
-  <si>
-    <t>/xta231/Desktop/experiments/Scalability/subito_perfect/20nodes/Network_Monitoring_with_tomography_and_RL/temp</t>
-  </si>
-  <si>
-    <t>to check</t>
-  </si>
-  <si>
-    <t>/Users/xutao/PycharmProjects/Network_tomography/temp/Subito*/40nodes</t>
+    <t>30% monitors deployed with BR20, 40, 60 ,80 nodes</t>
+  </si>
+  <si>
+    <t>50 nodes Barabasi Final in BR 50 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN </t>
+  </si>
+  <si>
+    <t>1st20times</t>
+  </si>
+  <si>
+    <t>1.50587275]</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>op_rate (20times)</t>
+  </si>
+  <si>
+    <t>20times</t>
+  </si>
+  <si>
+    <t>3rd20times</t>
+  </si>
+  <si>
+    <t>50nodes with 10%-50% for mse to check</t>
+  </si>
+  <si>
+    <t>first 10times</t>
+  </si>
+  <si>
+    <t>the results is not good</t>
+  </si>
+  <si>
+    <t>second 10times</t>
+  </si>
+  <si>
+    <t>(optimal rate) 20times</t>
+  </si>
+  <si>
+    <t> 0.766920</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>1.1240636 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8715     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90655    </t>
+  </si>
+  <si>
+    <t>0.346      0.7549     0.75389286 0.86869091 0.84127473</t>
+  </si>
+  <si>
+    <t>6.89584347 2.53562685 2.14560067 1.55024439 2.09519318]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.95858   </t>
+  </si>
+  <si>
+    <t>0.773     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.80024    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +441,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,18 +507,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,12 +518,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,6 +564,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tao, Xu" id="{5256EC3B-562C-5E47-AB11-83F1223758BE}" userId="S::xta231@uky.edu::0413a763-db4d-4124-b9a9-2368bd787397" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,6 +867,44 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A107" dT="2022-10-25T01:37:13.41" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{D28BDBFF-1528-E748-B16C-F3DBE52B1B2B}">
+    <text>xta231/Desktop/experiments/Scalability/baseline/Network_Monitoring_with_tomography_and_RL/temp/BTN</text>
+  </threadedComment>
+  <threadedComment ref="H107" dT="2022-10-25T03:53:44.89" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{1EFAEBE9-F041-D94A-B38C-C6F09206E75C}">
+    <text xml:space="preserve">xutao/PycharmProjects/NT_experiments/scalability/subito/Network_Monitoring_with_tomography_and_RL/temp
+</text>
+  </threadedComment>
+  <threadedComment ref="G115" dT="2022-10-25T02:22:40.62" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{FF409B16-7D44-304B-B1C1-19A3808E603A}">
+    <text xml:space="preserve"> python3 main.py BTN 20 2 1 20 &gt; BTN_20_subito.log &amp;  
+/Users/xutao/PycharmProjects/Network_tomography/temp</text>
+  </threadedComment>
+  <threadedComment ref="B128" dT="2022-10-25T02:05:02.95" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{07F9D206-B666-1043-8B62-DD18D40F27D7}">
+    <text>python3 main.py BTN 20 2 1 20 &gt; BTN_subito_perfect_20run.log
+xta231/Desktop/experiments/Scalability/subito_perfect/BTN/Network_Monitoring_with_tomography_and_RL/temp</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B27" dT="2022-10-25T14:50:11.03" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{DD5B7503-0861-AF4E-B3FB-F2F3A7D56129}">
+    <text>/Users/xutao/PycharmProjects/NT_experiments/scalability/subito_perfect/Network_Monitoring_with_tomography_and_RL/temp</text>
+  </threadedComment>
+  <threadedComment ref="C27" dT="2022-10-25T15:08:59.36" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{15F631CE-E508-5445-B51A-ECE8E8B3B409}">
+    <text>/Users/xutao/PycharmProjects/Network_tomography/temp/Subito*/40nodes</text>
+  </threadedComment>
+  <threadedComment ref="D27" dT="2022-10-25T15:10:23.05" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{CA79A69E-D931-6148-8D73-963A4AF5C695}">
+    <text>xta231/Desktop/experiments/Scalability/subito_perfect/60nodes/Network_Monitoring_with_tomography_and_RL/temp/1st_20times</text>
+  </threadedComment>
+  <threadedComment ref="E27" dT="2022-10-25T03:56:02.75" personId="{5256EC3B-562C-5E47-AB11-83F1223758BE}" id="{D3790BEA-9440-F942-9D26-BBCB8ECB9AD7}">
+    <text xml:space="preserve">xutao/PycharmProjects/NT_experiments/scalability/subito_perfect/Network_Monitoring_with_tomography_and_RL/temp
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D411F-4F63-514D-938F-FE1D43ED4FCD}">
   <dimension ref="A1:K35"/>
@@ -1324,11 +1546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457393F-D1A3-0148-8982-D629C1124A02}">
-  <dimension ref="A1:M103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457393F-D1A3-0148-8982-D629C1124A02}">
+  <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1337,18 +1559,18 @@
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1591,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1611,7 @@
         <v>0.61627332999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1631,7 @@
         <v>0.62600100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1656,7 @@
         <v>0.62113716500000005</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1676,7 @@
         <v>5.2843326199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1696,7 @@
         <v>5.2322092900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1721,7 @@
         <v>5.2582709550000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1507,7 +1729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1535,17 +1757,17 @@
       <c r="J13">
         <v>0.73202111000000003</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.72751189999999999</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.75559684000000005</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.80581283000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1573,17 +1795,17 @@
       <c r="J14">
         <v>0.68479778000000002</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.71595333000000005</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.74759788999999999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.80655882999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1613,20 +1835,20 @@
         <f>AVERAGE(J13:J14)</f>
         <v>0.70840944500000003</v>
       </c>
-      <c r="K15">
-        <f>AVERAGE(K13:K14)</f>
-        <v>0.72173261500000008</v>
-      </c>
       <c r="L15">
         <f>AVERAGE(L13:L14)</f>
-        <v>0.75159736500000007</v>
+        <v>0.72173261500000008</v>
       </c>
       <c r="M15">
         <f>AVERAGE(M13:M14)</f>
+        <v>0.75159736500000007</v>
+      </c>
+      <c r="N15">
+        <f>AVERAGE(N13:N14)</f>
         <v>0.80618582999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1646,7 +1868,7 @@
         <v>0.90006266999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1675,8 +1897,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1704,17 +1927,17 @@
       <c r="J21">
         <v>2.5731726099999999</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2.5841952300000002</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2.3549984500000001</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.85211002</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1742,17 +1965,17 @@
       <c r="J22">
         <v>2.8975367400000001</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2.6010302599999999</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2.4311179799999998</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1.82297719</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1779,23 +2002,23 @@
         <v>3.5227491349999998</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:M23" si="0">AVERAGE(J21,J22)</f>
+        <f>AVERAGE(J21,J22)</f>
         <v>2.735354675</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
+      <c r="L23">
+        <f>AVERAGE(L21,L22)</f>
         <v>2.5926127450000003</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
+      <c r="M23">
+        <f>AVERAGE(M21,M22)</f>
         <v>2.3930582149999999</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
+      <c r="N23">
+        <f>AVERAGE(N21,N22)</f>
         <v>1.837543605</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1815,7 +2038,7 @@
         <v>1.68834292</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1976,19 +2199,19 @@
         <v>0.70964083333333328</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:F47" si="1">AVERAGE(C41:C46)</f>
+        <f>AVERAGE(C41:C46)</f>
         <v>0.75915314833333325</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D41:D46)</f>
         <v>0.78767309333333324</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E41:E46)</f>
         <v>0.80981148999999997</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F41:F46)</f>
         <v>0.87063033333333351</v>
       </c>
     </row>
@@ -2231,103 +2454,103 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="A69" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="12">
         <v>0.67188999999999999</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="12">
         <v>0.73202111000000003</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="12">
         <v>0.72751189999999999</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="12">
         <v>0.75559684000000005</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="12">
         <v>0.80581283000000004</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="12">
         <v>0.77002999999999999</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="12">
         <v>0.76498222000000005</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="12">
         <v>0.80641713999999998</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="12">
         <v>0.82032000000000005</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="12">
         <v>0.897374</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="12">
         <v>0.68584999999999996</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="12">
         <v>0.76172888999999999</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="12">
         <v>0.82770666999999998</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="12">
         <v>0.85395368000000005</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="12">
         <v>0.90396900000000002</v>
       </c>
     </row>
@@ -2352,72 +2575,72 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="12">
         <v>3.4554155299999998</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="12">
         <v>2.5731726099999999</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="12">
         <v>2.5841952300000002</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="12">
         <v>2.3549984500000001</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="12">
         <v>1.85211002</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="12">
         <v>3.36916934</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="12">
         <v>2.8358765699999999</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="12">
         <v>2.4596738899999999</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="12">
         <v>2.3396984999999999</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="12">
         <v>1.71437434</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="12">
         <v>3.89365483</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="12">
         <v>2.87861674</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="12">
         <v>2.2710237200000001</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="12">
         <v>2.1592348499999998</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="12">
         <v>1.6642522900000001</v>
       </c>
     </row>
@@ -2430,19 +2653,19 @@
         <v>3.5727465666666665</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" ref="C83:F83" si="2">AVERAGE(C80:C82)</f>
+        <f>AVERAGE(C80:C82)</f>
         <v>2.7625553066666666</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(D80:D82)</f>
         <v>2.4382976133333334</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E80:E82)</f>
         <v>2.2846439333333333</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F80:F82)</f>
         <v>1.7435788833333332</v>
       </c>
     </row>
@@ -2582,27 +2805,27 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="14">
         <v>0.1</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="14">
         <v>0.2</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="14">
         <v>0.3</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="14">
         <v>0.4</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="14">
         <v>0.5</v>
       </c>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -2623,7 +2846,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2867,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
@@ -2665,7 +2888,7 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2674,7 +2897,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2918,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
@@ -2716,7 +2939,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>6</v>
       </c>
@@ -2736,6 +2959,1116 @@
         <v>5.2582709599999999</v>
       </c>
       <c r="G103" s="8"/>
+    </row>
+    <row r="105" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B105" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107">
+        <v>0.69774999999999998</v>
+      </c>
+      <c r="C107">
+        <v>0.61396499999999998</v>
+      </c>
+      <c r="D107">
+        <v>0.60355714000000005</v>
+      </c>
+      <c r="E107">
+        <v>0.58591181999999997</v>
+      </c>
+      <c r="F107">
+        <v>0.60635934000000002</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108">
+        <v>2.3273342600000002</v>
+      </c>
+      <c r="C108">
+        <v>3.8643553499999999</v>
+      </c>
+      <c r="D108">
+        <v>3.73475607</v>
+      </c>
+      <c r="E108">
+        <v>4.0642018499999999</v>
+      </c>
+      <c r="F108">
+        <v>3.9927822800000001</v>
+      </c>
+      <c r="H108" t="s">
+        <v>59</v>
+      </c>
+      <c r="I108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="C111">
+        <v>0.78320999999999996</v>
+      </c>
+      <c r="D111">
+        <v>0.78308571000000005</v>
+      </c>
+      <c r="E111">
+        <v>0.81137090999999995</v>
+      </c>
+      <c r="F111">
+        <v>0.84554395999999998</v>
+      </c>
+      <c r="G111">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H111">
+        <v>0.78320999999999996</v>
+      </c>
+      <c r="I111">
+        <v>0.78308571000000005</v>
+      </c>
+      <c r="J111">
+        <v>0.81137090999999995</v>
+      </c>
+      <c r="L111">
+        <v>0.84554395999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <f ca="1">AVERAGE(B111:B191)</f>
+        <v>0.84210000000000007</v>
+      </c>
+      <c r="C113">
+        <f ca="1">AVERAGE(C111:C191)</f>
+        <v>0.74234</v>
+      </c>
+      <c r="D113">
+        <f ca="1">AVERAGE(D111:D191)</f>
+        <v>0.75224285499999999</v>
+      </c>
+      <c r="E113">
+        <f ca="1">AVERAGE(E111:E191)</f>
+        <v>0.75795545500000006</v>
+      </c>
+      <c r="F113">
+        <f ca="1">AVERAGE(F111:F191)</f>
+        <v>0.80535274999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>0.78844999999999998</v>
+      </c>
+      <c r="H114">
+        <v>0.76687000000000005</v>
+      </c>
+      <c r="I114">
+        <v>0.76879821000000004</v>
+      </c>
+      <c r="J114">
+        <v>0.76297727000000004</v>
+      </c>
+      <c r="L114">
+        <v>0.73703242000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="G115" s="19">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="H115">
+        <v>0.76258000000000004</v>
+      </c>
+      <c r="I115">
+        <v>0.77595000000000003</v>
+      </c>
+      <c r="J115">
+        <v>0.68121818000000001</v>
+      </c>
+      <c r="L115">
+        <v>0.72014396000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B116" s="19">
+        <v>0.7863</v>
+      </c>
+      <c r="C116">
+        <v>0.74268999999999996</v>
+      </c>
+      <c r="D116">
+        <v>0.72261070999999999</v>
+      </c>
+      <c r="E116">
+        <v>0.82225817999999995</v>
+      </c>
+      <c r="F116">
+        <v>0.75422526999999995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G117" s="19">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="H117">
+        <v>0.74253999999999998</v>
+      </c>
+      <c r="I117">
+        <v>0.73023214000000003</v>
+      </c>
+      <c r="J117">
+        <v>0.77920363999999998</v>
+      </c>
+      <c r="L117">
+        <v>0.78194505000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <f ca="1">AVERAGE(B111:B117)</f>
+        <v>0.82814999999999994</v>
+      </c>
+      <c r="C118">
+        <f ca="1">AVERAGE(C111:C115)</f>
+        <v>0.74234</v>
+      </c>
+      <c r="D118">
+        <f ca="1">AVERAGE(D111:D117)</f>
+        <v>0.74483481875000002</v>
+      </c>
+      <c r="E118">
+        <f ca="1">AVERAGE(E111:E117)</f>
+        <v>0.77403113624999997</v>
+      </c>
+      <c r="F118">
+        <f ca="1">AVERAGE(F111:F117)</f>
+        <v>0.79257087999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119">
+        <v>2.1156220800000001</v>
+      </c>
+      <c r="C119">
+        <v>2.37625763</v>
+      </c>
+      <c r="D119">
+        <v>2.1403449800000001</v>
+      </c>
+      <c r="E119">
+        <v>1.6898493299999999</v>
+      </c>
+      <c r="F119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>2.0949739699999999</v>
+      </c>
+      <c r="C120">
+        <v>2.80827216</v>
+      </c>
+      <c r="D120">
+        <v>2.6888514300000002</v>
+      </c>
+      <c r="E120">
+        <v>2.7573678899999998</v>
+      </c>
+      <c r="F120">
+        <v>2.4799016100000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <f>AVERAGE(B119:B120)</f>
+        <v>2.1052980249999997</v>
+      </c>
+      <c r="C121">
+        <f>AVERAGE(C119:C120)</f>
+        <v>2.592264895</v>
+      </c>
+      <c r="D121">
+        <f>AVERAGE(D119:D120)</f>
+        <v>2.4145982049999999</v>
+      </c>
+      <c r="E121">
+        <f>AVERAGE(E119:E120)</f>
+        <v>2.2236086099999999</v>
+      </c>
+      <c r="F121">
+        <f>AVERAGE(F119:F120)</f>
+        <v>2.4799016100000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>2.44539426</v>
+      </c>
+      <c r="C122">
+        <v>2.3994117300000002</v>
+      </c>
+      <c r="D122">
+        <v>2.3302018200000001</v>
+      </c>
+      <c r="E122">
+        <v>2.4230353600000001</v>
+      </c>
+      <c r="F122">
+        <v>2.6480701299999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>2.5785567899999999</v>
+      </c>
+      <c r="C123">
+        <v>2.46892098</v>
+      </c>
+      <c r="D123">
+        <v>2.00357619</v>
+      </c>
+      <c r="E123">
+        <v>3.1704310699999998</v>
+      </c>
+      <c r="F123">
+        <v>2.78014436</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>2.8515021800000002</v>
+      </c>
+      <c r="C124">
+        <v>2.48184928</v>
+      </c>
+      <c r="D124">
+        <v>2.7131656</v>
+      </c>
+      <c r="E124">
+        <v>1.87018756</v>
+      </c>
+      <c r="F124">
+        <v>2.5018589499999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>2.0167549199999999</v>
+      </c>
+      <c r="C125">
+        <v>2.6589722299999998</v>
+      </c>
+      <c r="D125">
+        <v>2.5827017200000002</v>
+      </c>
+      <c r="E125">
+        <v>2.23585974</v>
+      </c>
+      <c r="F125">
+        <v>2.3248252300000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <f>AVERAGE(B119:B125)</f>
+        <v>2.315443175</v>
+      </c>
+      <c r="C126">
+        <f>AVERAGE(C119:C125)</f>
+        <v>2.5408498435714288</v>
+      </c>
+      <c r="D126">
+        <f>AVERAGE(D119:D125)</f>
+        <v>2.410491420714286</v>
+      </c>
+      <c r="E126">
+        <f>AVERAGE(E119:E125)</f>
+        <v>2.3386199371428567</v>
+      </c>
+      <c r="F126">
+        <f>AVERAGE(F119:F125)</f>
+        <v>2.5357836483333331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="12">
+        <v>0.91134999999999999</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0.91966000000000003</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.91309107</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.92795726999999995</v>
+      </c>
+      <c r="F128" s="12">
+        <v>0.90411702999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="H129">
+        <v>0.87814000000000003</v>
+      </c>
+      <c r="I129">
+        <v>0.90186785999999997</v>
+      </c>
+      <c r="J129">
+        <v>0.92087817999999999</v>
+      </c>
+      <c r="L129">
+        <v>0.89838680999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B130" s="12">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0.91874500000000003</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.92210535999999999</v>
+      </c>
+      <c r="E130" s="12">
+        <v>0.91644727000000004</v>
+      </c>
+      <c r="F130" s="12">
+        <v>0.91992143000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B131" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.89886785999999996</v>
+      </c>
+      <c r="E131" s="12">
+        <v>0.87960364000000002</v>
+      </c>
+      <c r="F131" s="12">
+        <v>0.92173077000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B132" s="7">
+        <f>AVERAGE(B128:B130)</f>
+        <v>0.87607499999999994</v>
+      </c>
+      <c r="C132" s="7">
+        <f>AVERAGE(C128:C130)</f>
+        <v>0.91920250000000003</v>
+      </c>
+      <c r="D132" s="7">
+        <f>AVERAGE(D128:D131)</f>
+        <v>0.91135476333333332</v>
+      </c>
+      <c r="E132" s="7">
+        <f>AVERAGE(E128:E131)</f>
+        <v>0.9080027266666667</v>
+      </c>
+      <c r="F132" s="7">
+        <f>AVERAGE(F128:F131)</f>
+        <v>0.91525641000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B136" s="12">
+        <v>1.60097003</v>
+      </c>
+      <c r="C136" s="12">
+        <v>0.97042708</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.98639257000000002</v>
+      </c>
+      <c r="E136" s="12">
+        <v>0.91157902999999996</v>
+      </c>
+      <c r="F136" s="12">
+        <v>1.1016963</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137">
+        <v>1.0350046799999999</v>
+      </c>
+      <c r="H137">
+        <v>1.27204315</v>
+      </c>
+      <c r="I137">
+        <v>1.04009763</v>
+      </c>
+      <c r="J137">
+        <v>1.0276427699999999</v>
+      </c>
+      <c r="L137">
+        <v>1.0837231700000001</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B138" s="23">
+        <v>1.87682733</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1.01478454</v>
+      </c>
+      <c r="E138" s="12">
+        <v>0.98914526999999997</v>
+      </c>
+      <c r="F138" s="12">
+        <v>1.0079975800000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B139" s="23">
+        <v>1.6350320300000001</v>
+      </c>
+      <c r="C139" s="12">
+        <v>1.2804862100000001</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1.2976980300000001</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1.35589158</v>
+      </c>
+      <c r="F139" s="12">
+        <v>0.96102666999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B140" s="7">
+        <f>AVERAGE(B136:B139)</f>
+        <v>1.7042764633333334</v>
+      </c>
+      <c r="C140" s="7">
+        <f>AVERAGE(C136:C139)</f>
+        <v>1.1254566450000001</v>
+      </c>
+      <c r="D140" s="7">
+        <f>AVERAGE(D136:D139)</f>
+        <v>1.0996250466666666</v>
+      </c>
+      <c r="E140" s="7">
+        <f>AVERAGE(E136:E139)</f>
+        <v>1.0855386266666667</v>
+      </c>
+      <c r="F140" s="7">
+        <f>AVERAGE(F136:F139)</f>
+        <v>1.0235735166666666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.83126666999999999</v>
+      </c>
+      <c r="C160" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160">
+        <v>0.87331429000000005</v>
+      </c>
+      <c r="E160">
+        <v>0.80391818000000004</v>
+      </c>
+      <c r="F160">
+        <v>0.83907582000000003</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160">
+        <v>1.8916463400000001</v>
+      </c>
+      <c r="I160">
+        <v>0.79676842999999997</v>
+      </c>
+      <c r="J160">
+        <v>1.2970273999999999</v>
+      </c>
+      <c r="L160">
+        <v>2.01970589</v>
+      </c>
+      <c r="M160">
+        <v>1.58837589</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B161" s="3">
+        <v>0.77483332999999999</v>
+      </c>
+      <c r="C161">
+        <v>0.79979</v>
+      </c>
+      <c r="D161">
+        <v>0.77585000000000004</v>
+      </c>
+      <c r="E161">
+        <v>0.77103454999999999</v>
+      </c>
+      <c r="F161">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161">
+        <v>2.7697226399999999</v>
+      </c>
+      <c r="I161">
+        <v>1.6715107600000001</v>
+      </c>
+      <c r="J161">
+        <v>2.2294338699999998</v>
+      </c>
+      <c r="L161">
+        <v>1.66843301</v>
+      </c>
+      <c r="M161">
+        <v>1.6692657500000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162">
+        <v>0.74992857000000002</v>
+      </c>
+      <c r="E162">
+        <v>0.81217273000000001</v>
+      </c>
+      <c r="F162">
+        <v>0.77177912000000004</v>
+      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3">
+        <v>3.0593432200000001</v>
+      </c>
+      <c r="I162">
+        <v>2.3352991699999999</v>
+      </c>
+      <c r="J162">
+        <v>2.7778765600000002</v>
+      </c>
+      <c r="L162">
+        <v>1.8972416599999999</v>
+      </c>
+      <c r="M162">
+        <v>2.3076622100000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="C163">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D163">
+        <v>0.83834642999999998</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.80287818</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.82942526999999999</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1.7245644600000001</v>
+      </c>
+      <c r="I163">
+        <v>2.18086892</v>
+      </c>
+      <c r="J163">
+        <v>1.7656865500000001</v>
+      </c>
+      <c r="L163">
+        <v>2.0588260599999999</v>
+      </c>
+      <c r="M163">
+        <v>1.8557454600000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>0.74116667000000003</v>
+      </c>
+      <c r="C164">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="D164">
+        <v>0.80286429000000004</v>
+      </c>
+      <c r="E164">
+        <v>0.84960363999999999</v>
+      </c>
+      <c r="F164">
+        <v>0.85332527000000002</v>
+      </c>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <f>AVERAGE(B160:B164)</f>
+        <v>0.80194166750000007</v>
+      </c>
+      <c r="C165">
+        <f>AVERAGE(C160:C164)</f>
+        <v>0.82362333333333337</v>
+      </c>
+      <c r="D165">
+        <f>AVERAGE(D160:D164)</f>
+        <v>0.80806071599999996</v>
+      </c>
+      <c r="E165">
+        <f>AVERAGE(E160:E164)</f>
+        <v>0.80792145600000009</v>
+      </c>
+      <c r="F165">
+        <f>AVERAGE(F160:F164)</f>
+        <v>0.81680109600000006</v>
+      </c>
+      <c r="G165" t="e">
+        <f t="shared" ref="G165:M165" si="0">AVERAGE(G160:G163)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="0"/>
+        <v>2.3613191649999998</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="0"/>
+        <v>1.7461118199999999</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="0"/>
+        <v>2.0175060949999999</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="0"/>
+        <v>1.9110516550000001</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="0"/>
+        <v>1.8552623275000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>0.74116667000000003</v>
+      </c>
+      <c r="C167">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="D167">
+        <v>0.80286429000000004</v>
+      </c>
+      <c r="E167">
+        <v>0.84960363999999999</v>
+      </c>
+      <c r="F167">
+        <v>0.85332527000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G169" s="19">
+        <v>0.7863</v>
+      </c>
+      <c r="H169">
+        <v>0.74268999999999996</v>
+      </c>
+      <c r="I169">
+        <v>0.72261070999999999</v>
+      </c>
+      <c r="J169">
+        <v>0.82225817999999995</v>
+      </c>
+      <c r="L169">
+        <v>0.75422526999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172">
+        <f>AVERAGE(B167:B169)</f>
+        <v>0.74116667000000003</v>
+      </c>
+      <c r="C172">
+        <f>AVERAGE(C167:C169)</f>
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="D172">
+        <f>AVERAGE(D167:D170)</f>
+        <v>0.80286429000000004</v>
+      </c>
+      <c r="E172">
+        <f>AVERAGE(E167:E170)</f>
+        <v>0.84960363999999999</v>
+      </c>
+      <c r="F172">
+        <f>AVERAGE(F167:F170)</f>
+        <v>0.85332527000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <f>AVERAGE(B167:B170)</f>
+        <v>0.74116667000000003</v>
+      </c>
+      <c r="C173">
+        <f>AVERAGE(C167:C170)</f>
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="D173">
+        <f>AVERAGE(D167:D170)</f>
+        <v>0.80286429000000004</v>
+      </c>
+      <c r="E173">
+        <f>AVERAGE(E167:E170)</f>
+        <v>0.84960363999999999</v>
+      </c>
+      <c r="F173">
+        <f>AVERAGE(F167:F170)</f>
+        <v>0.85332527000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>2.9457976499999998</v>
+      </c>
+      <c r="C181">
+        <v>2.2860010100000001</v>
+      </c>
+      <c r="D181">
+        <v>2.4097762700000001</v>
+      </c>
+      <c r="E181">
+        <v>2.31148357</v>
+      </c>
+      <c r="F181">
+        <v>1.99607197</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B182" s="3">
+        <v>2.9457976499999998</v>
+      </c>
+      <c r="C182">
+        <v>2.2860010100000001</v>
+      </c>
+      <c r="D182">
+        <v>2.4097762700000001</v>
+      </c>
+      <c r="E182">
+        <v>2.31148357</v>
+      </c>
+      <c r="F182">
+        <v>1.99607197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1.17818976</v>
+      </c>
+      <c r="C183">
+        <v>1.32333766</v>
+      </c>
+      <c r="D183">
+        <v>1.0097120900000001</v>
+      </c>
+      <c r="E183">
+        <v>1.0828384900000001</v>
+      </c>
+      <c r="F183">
+        <v>1.0310251100000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B185">
+        <f>AVERAGE(B180:B182)</f>
+        <v>2.9457976499999998</v>
+      </c>
+      <c r="C185">
+        <f>AVERAGE(C180:C184)</f>
+        <v>1.9651132266666667</v>
+      </c>
+      <c r="D185">
+        <f>AVERAGE(D180:D184)</f>
+        <v>1.94308821</v>
+      </c>
+      <c r="E185">
+        <f>AVERAGE(E180:E184)</f>
+        <v>1.9019352100000002</v>
+      </c>
+      <c r="F185">
+        <f>AVERAGE(F180:F183)</f>
+        <v>1.6743896833333334</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>0.74116667000000003</v>
+      </c>
+      <c r="C188">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="D188">
+        <v>0.80286429000000004</v>
+      </c>
+      <c r="E188">
+        <v>0.84960363999999999</v>
+      </c>
+      <c r="F188">
+        <v>0.85332527000000002</v>
+      </c>
+      <c r="H188">
+        <v>2.7697226399999999</v>
+      </c>
+      <c r="I188">
+        <v>1.6715107600000001</v>
+      </c>
+      <c r="J188">
+        <v>2.2294338699999998</v>
+      </c>
+      <c r="K188">
+        <v>1.6692657500000001</v>
+      </c>
+      <c r="L188">
+        <v>1.66843301</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>0.94353332999999995</v>
+      </c>
+      <c r="C189">
+        <v>0.88565000000000005</v>
+      </c>
+      <c r="D189">
+        <v>0.91648213999999995</v>
+      </c>
+      <c r="E189">
+        <v>0.91097636000000004</v>
+      </c>
+      <c r="F189">
+        <v>0.92257692000000002</v>
+      </c>
+      <c r="H189">
+        <v>1.17818976</v>
+      </c>
+      <c r="I189">
+        <v>1.32333766</v>
+      </c>
+      <c r="J189">
+        <v>1.0097120900000001</v>
+      </c>
+      <c r="K189">
+        <v>1.0310251100000001</v>
+      </c>
+      <c r="L189">
+        <v>1.0828384900000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B190" s="19">
+        <v>0.7863</v>
+      </c>
+      <c r="C190">
+        <v>0.74268999999999996</v>
+      </c>
+      <c r="D190">
+        <v>0.72261070999999999</v>
+      </c>
+      <c r="E190">
+        <v>0.82225817999999995</v>
+      </c>
+      <c r="F190">
+        <v>0.75422526999999995</v>
+      </c>
+      <c r="H190">
+        <v>2.8515021800000002</v>
+      </c>
+      <c r="I190">
+        <v>2.48184928</v>
+      </c>
+      <c r="J190">
+        <v>2.7131656</v>
+      </c>
+      <c r="K190">
+        <v>2.5018589499999999</v>
+      </c>
+      <c r="L190">
+        <v>1.87018756</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <f>AVERAGE(B188:B189)</f>
+        <v>0.84234999999999993</v>
+      </c>
+      <c r="C191">
+        <f>AVERAGE(C188:C189)</f>
+        <v>0.87436500000000006</v>
+      </c>
+      <c r="D191">
+        <f>AVERAGE(D188:D189)</f>
+        <v>0.85967321499999994</v>
+      </c>
+      <c r="E191">
+        <f>AVERAGE(E188:E189)</f>
+        <v>0.88029000000000002</v>
+      </c>
+      <c r="F191">
+        <f>AVERAGE(F188:F189)</f>
+        <v>0.88795109500000002</v>
+      </c>
+      <c r="H191">
+        <f>AVERAGE(H188:H190)</f>
+        <v>2.2664715266666668</v>
+      </c>
+      <c r="I191">
+        <f>AVERAGE(I188:I190)</f>
+        <v>1.8255659000000002</v>
+      </c>
+      <c r="J191">
+        <f>AVERAGE(J188:J190)</f>
+        <v>1.9841038533333333</v>
+      </c>
+      <c r="K191">
+        <f>AVERAGE(K188:K190)</f>
+        <v>1.7340499366666666</v>
+      </c>
+      <c r="L191">
+        <f>AVERAGE(L188:L190)</f>
+        <v>1.5404863533333335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <f>AVERAGE(B188,B190)</f>
+        <v>0.76373333499999996</v>
+      </c>
+      <c r="C192">
+        <f>AVERAGE(C188,C190)</f>
+        <v>0.80288499999999996</v>
+      </c>
+      <c r="D192">
+        <f>AVERAGE(D188,D190)</f>
+        <v>0.76273750000000007</v>
+      </c>
+      <c r="E192">
+        <f>AVERAGE(E188,E190)</f>
+        <v>0.83593090999999997</v>
+      </c>
+      <c r="F192">
+        <f>AVERAGE(F188,F190)</f>
+        <v>0.80377527000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2744,15 +4077,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81467EFA-C694-4D44-8B73-934D56799AE2}">
-  <dimension ref="A1:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81467EFA-C694-4D44-8B73-934D56799AE2}">
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2760,439 +4094,613 @@
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>0.55722083</v>
       </c>
+      <c r="C3">
+        <v>0.52896874999999999</v>
+      </c>
       <c r="D3">
-        <v>0.52896874999999999</v>
+        <v>0.48950152000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.52721812000000001</v>
       </c>
       <c r="F3">
-        <v>0.48950152000000002</v>
-      </c>
-      <c r="G3">
-        <v>0.52721812000000001</v>
+        <v>0.56089197000000002</v>
       </c>
       <c r="H3">
-        <v>0.56089197000000002</v>
+        <v>4.3544739899999998</v>
+      </c>
+      <c r="I3">
+        <v>5.4281651599999998</v>
       </c>
       <c r="J3">
-        <v>4.3544739899999998</v>
+        <v>4.9264801599999997</v>
+      </c>
+      <c r="K3">
+        <v>4.9576806199999996</v>
       </c>
       <c r="L3">
-        <v>5.4281651599999998</v>
-      </c>
-      <c r="M3">
-        <v>4.9264801599999997</v>
-      </c>
-      <c r="N3">
-        <v>4.9576806199999996</v>
-      </c>
-      <c r="O3">
         <v>0.64599390999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <v>0.85369583000000004</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>0.73966964000000002</v>
       </c>
-      <c r="J4">
+      <c r="H4">
         <v>1.93516982</v>
       </c>
-      <c r="L4">
+      <c r="I4">
         <v>3.3013023399999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>0.64950666999999995</v>
       </c>
+      <c r="C5">
+        <v>0.56473333000000003</v>
+      </c>
       <c r="D5">
-        <v>0.56473333000000003</v>
+        <v>0.56776731999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.57303024999999996</v>
       </c>
       <c r="F5">
-        <v>0.56776731999999996</v>
-      </c>
-      <c r="G5">
-        <v>0.57303024999999996</v>
+        <v>5.04053401</v>
       </c>
       <c r="H5">
-        <v>5.04053401</v>
+        <v>3.54004911</v>
+      </c>
+      <c r="I5">
+        <v>4.8216525199999998</v>
       </c>
       <c r="J5">
-        <v>3.54004911</v>
+        <v>4.89638844</v>
+      </c>
+      <c r="K5">
+        <v>5.3178572199999996</v>
       </c>
       <c r="L5">
-        <v>4.8216525199999998</v>
-      </c>
-      <c r="M5">
-        <v>4.89638844</v>
-      </c>
-      <c r="N5">
-        <v>5.3178572199999996</v>
-      </c>
-      <c r="O5">
         <v>5.4803232599999996</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>0.86105666999999997</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>0.76917840999999998</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <v>1.66976496</v>
       </c>
-      <c r="L6">
+      <c r="I6">
         <v>2.9726158300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0.2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <v>0.3</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="G13" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>0.2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="G13" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0.86293900000000001</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>0.73230099999999998</v>
       </c>
-      <c r="H14">
+      <c r="F14">
         <v>0.76544199999999996</v>
       </c>
-      <c r="I14">
+      <c r="G14">
         <v>0.65229700000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0.65945500000000001</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>0.70899999999999996</v>
       </c>
-      <c r="H15">
+      <c r="F15">
         <v>0.71675</v>
       </c>
-      <c r="I15">
+      <c r="G15">
         <v>0.70642799999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.78792399999999996</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>0.62799300000000002</v>
       </c>
-      <c r="H16">
+      <c r="F16">
         <v>0.67685799999999996</v>
       </c>
-      <c r="I16">
+      <c r="G16">
         <v>0.66135900000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.59686399999999995</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>0.704314</v>
       </c>
-      <c r="H17">
-        <f ca="1">AVERAGE(H14:H17)</f>
+      <c r="F17">
+        <f ca="1">AVERAGE(F14:F17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0.69856099999999999</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>0.78192799999999996</v>
       </c>
-      <c r="H18">
-        <f>AVERAGE(H14:H16)</f>
+      <c r="F18">
+        <f>AVERAGE(F14:F16)</f>
         <v>0.71968333333333323</v>
       </c>
-      <c r="I18">
-        <f>AVERAGE(I14:I16)</f>
+      <c r="G18">
+        <f>AVERAGE(G14:G16)</f>
         <v>0.67336133333333326</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0.65612099999999995</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>0.77773899999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.65262100000000001</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>0.82903300000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0.72381799999999996</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>0.672346</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0.59969700000000004</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>0.67768600000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>AVERAGE(B14:B22)</f>
         <v>0.69311111111111101</v>
       </c>
-      <c r="D23">
-        <f>AVERAGE(D14:D22)</f>
+      <c r="C23">
+        <f>AVERAGE(C14:C22)</f>
         <v>0.72359333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" t="s">
+      <c r="K26" t="s">
         <v>13</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" t="s">
-        <v>11</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="B27">
-        <v>0.79517667000000003</v>
+        <v>0.88412667</v>
+      </c>
+      <c r="C27">
+        <v>0.85507955000000002</v>
       </c>
       <c r="D27">
-        <v>0.85507955000000002</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27">
-        <v>0.85692667</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.75513333000000005</v>
-      </c>
-      <c r="D28">
-        <v>0.84593863999999996</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28">
+        <v>0.77260229000000002</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.74318260999999997</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="H27" s="8">
         <v>0.86707999999999996</v>
       </c>
-      <c r="K28" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>39</v>
+      <c r="I27" s="8">
+        <v>0.78522999999999998</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.72915316699999999</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.66641793299999996</v>
+      </c>
+      <c r="M27">
+        <v>0.84587878999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.94766496</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27">
+        <v>2.8765309999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I28" s="8"/>
+      <c r="M28">
+        <v>0.84757576000000001</v>
+      </c>
+      <c r="N28">
+        <v>1.9740566500000001</v>
+      </c>
+      <c r="P28">
+        <v>0.72197800000000001</v>
+      </c>
+      <c r="Q28">
+        <v>3.1289380000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>0.77180302999999995</v>
+      </c>
+      <c r="N29">
+        <v>2.82352581</v>
+      </c>
+      <c r="P29">
+        <v>0.60807599999999995</v>
+      </c>
+      <c r="Q29">
+        <v>3.6186989999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B30">
-        <f>AVERAGE(B27:B28)</f>
-        <v>0.77515500000000004</v>
+        <v>1.2973357299999999</v>
+      </c>
+      <c r="C30">
+        <v>1.9665792</v>
       </c>
       <c r="D30">
-        <f>AVERAGE(D27:D28)</f>
-        <v>0.85050909500000005</v>
-      </c>
-      <c r="J30">
-        <f>AVERAGE(J27:HL28)</f>
-        <v>0.86200333500000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33">
-        <v>1.83779469</v>
-      </c>
-      <c r="D33">
-        <v>1.9665792</v>
-      </c>
-      <c r="J33">
+        <v>2.29629007</v>
+      </c>
+      <c r="E30">
+        <v>2.9818954799999999</v>
+      </c>
+      <c r="H30" s="8">
         <v>1.45996846</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1.4414918000000001</v>
-      </c>
-      <c r="D34">
-        <v>2.00429214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <f>AVERAGE(B33:B34)</f>
-        <v>1.639643245</v>
+      <c r="I30" s="8">
+        <v>2.4309242759999998</v>
+      </c>
+      <c r="J30" s="8">
+        <v>2.4981908380000002</v>
+      </c>
+      <c r="K30" s="8">
+        <v>3.3266733130000001</v>
+      </c>
+      <c r="M30">
+        <v>0.72136363999999997</v>
+      </c>
+      <c r="N30" s="22">
+        <v>2.7533697899999998</v>
+      </c>
+      <c r="P30">
+        <v>0.67414099999999999</v>
+      </c>
+      <c r="Q30">
+        <v>3.445551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>0.73954545000000005</v>
+      </c>
+      <c r="N31">
+        <v>2.6560041700000001</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.62982199999999999</v>
+      </c>
+      <c r="Q31">
+        <v>3.9113190000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>0.77177099999999998</v>
+      </c>
+      <c r="N32">
+        <v>2.2150189999999998</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.69799599999999995</v>
+      </c>
+      <c r="Q32">
+        <v>2.9328409999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0.65184299999999995</v>
+      </c>
+      <c r="N33">
+        <v>2.8651559999999998</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0.65005800000000002</v>
+      </c>
+      <c r="Q33">
+        <v>3.4677660000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>0.69395399999999996</v>
+      </c>
+      <c r="N34">
+        <v>2.1925509999999999</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.65362299999999995</v>
+      </c>
+      <c r="Q34">
+        <v>3.613489</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>0.61050300000000002</v>
+      </c>
+      <c r="N35">
+        <v>3.109753</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.640652</v>
+      </c>
+      <c r="Q35">
+        <v>3.503279</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>0.63729400000000003</v>
+      </c>
+      <c r="N36">
+        <v>2.4448080000000001</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0.67111200000000004</v>
+      </c>
+      <c r="Q36">
+        <v>3.4258199999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37">
+        <f>AVERAGE(M27:M36)</f>
+        <v>0.72915316699999988</v>
+      </c>
+      <c r="N37">
+        <f>AVERAGE(N27:N36)</f>
+        <v>2.4981908380000002</v>
+      </c>
+      <c r="P37">
+        <v>0.66944899999999996</v>
+      </c>
+      <c r="Q37">
+        <v>3.3281049999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="P38" s="3">
+        <v>0.606993</v>
+      </c>
+      <c r="Q38">
+        <v>3.5717880000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="P39" s="3">
+        <v>0.710341</v>
+      </c>
+      <c r="Q39">
+        <v>2.970936</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="P40" s="3">
+        <v>0.66043799999999997</v>
+      </c>
+      <c r="Q40">
+        <v>3.387982</v>
+      </c>
+    </row>
+    <row r="41" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0.76064100000000001</v>
+      </c>
+      <c r="Q41">
+        <v>2.7140309999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0.64094899999999999</v>
+      </c>
+      <c r="Q42">
+        <v>3.329698</v>
+      </c>
+    </row>
+    <row r="43" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43">
+        <f>AVERAGE(P27:P42)</f>
+        <v>0.66641793333333321</v>
+      </c>
+      <c r="Q43">
+        <f>AVERAGE(Q27:Q42)</f>
+        <v>3.3266733125000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>